--- a/Slideshow/Budget.xlsx
+++ b/Slideshow/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANTERPA\Documents\Carrier-Proyect\Slideshow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A31E4D4-68B4-4CA9-812F-0BBDCD176849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE80B6F-DEE2-4310-B42C-B8527416209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3BDEFC4-CA19-4C1E-8B24-A8DF072473EC}"/>
   </bookViews>
